--- a/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_19.xlsx
+++ b/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_19.xlsx
@@ -508,393 +508,393 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_19_4</t>
+          <t>model_1_19_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9877232372839876</v>
+        <v>0.9245088472885915</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7298107027092603</v>
+        <v>0.7176329549371117</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7243062629799105</v>
+        <v>0.6610694188456736</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9679911176581731</v>
+        <v>0.8609339517076067</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05152294684290937</v>
+        <v>0.3168202186710665</v>
       </c>
       <c r="G2" t="n">
-        <v>1.806757075090494</v>
+        <v>1.888189730516225</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9861405116795101</v>
+        <v>1.212335036464778</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03580866027299606</v>
+        <v>0.789580385033396</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4796422478187976</v>
+        <v>1.695290988994053</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2269866666632853</v>
+        <v>0.5628678518720592</v>
       </c>
       <c r="L2" t="n">
-        <v>1.007186397687422</v>
+        <v>0.7411731907037423</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2366499589903173</v>
+        <v>0.5868303016233339</v>
       </c>
       <c r="N2" t="n">
-        <v>135.9314560015679</v>
+        <v>36.29884159903133</v>
       </c>
       <c r="O2" t="n">
-        <v>215.1583846180009</v>
+        <v>57.01973062179074</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_19_3</t>
+          <t>model_1_19_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9876547279882961</v>
+        <v>0.9252504954677301</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7298097421941798</v>
+        <v>0.7074369820976992</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7257159130752401</v>
+        <v>0.6482464453265464</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9707029728247017</v>
+        <v>0.8461934534897787</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05181046570124444</v>
+        <v>0.3137076799184799</v>
       </c>
       <c r="G3" t="n">
-        <v>1.80676349805926</v>
+        <v>1.956370247841514</v>
       </c>
       <c r="H3" t="n">
-        <v>0.981098275024725</v>
+        <v>1.258202069223972</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0327748804824128</v>
+        <v>0.8732730505066069</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4706634682147935</v>
+        <v>1.595531789509573</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2276191241992738</v>
+        <v>0.5600961345327067</v>
       </c>
       <c r="L3" t="n">
-        <v>1.007226500689778</v>
+        <v>0.7437159844607888</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2373093415529805</v>
+        <v>0.5839405865385993</v>
       </c>
       <c r="N3" t="n">
-        <v>135.9203262191192</v>
+        <v>36.31858736471176</v>
       </c>
       <c r="O3" t="n">
-        <v>215.1472548355522</v>
+        <v>57.03947638747117</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_19_5</t>
+          <t>model_1_19_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9877806772849611</v>
+        <v>0.9252445684993572</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7298092119295249</v>
+        <v>0.7066913155881891</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7228973156202951</v>
+        <v>0.6397326181894953</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9651501297000906</v>
+        <v>0.8362255532411491</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05128188344653428</v>
+        <v>0.3137325541368288</v>
       </c>
       <c r="G4" t="n">
-        <v>1.80676704394145</v>
+        <v>1.961356523224087</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9911802346893923</v>
+        <v>1.288655535233142</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03898690222297235</v>
+        <v>0.929868162059208</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4884224985811661</v>
+        <v>1.531319227590901</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2264550362578282</v>
+        <v>0.5601183394041199</v>
       </c>
       <c r="L4" t="n">
-        <v>1.007152774272218</v>
+        <v>0.7436956634263676</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2360956959778733</v>
+        <v>0.5839637367173589</v>
       </c>
       <c r="N4" t="n">
-        <v>135.9408354767353</v>
+        <v>36.31842878885378</v>
       </c>
       <c r="O4" t="n">
-        <v>215.1677640931683</v>
+        <v>57.03931781161319</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_19_2</t>
+          <t>model_1_19_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9875746287695611</v>
+        <v>0.9252148863370063</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7298063629358205</v>
+        <v>0.7062878574363045</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7271259591767159</v>
+        <v>0.63880744054109</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9732776436833473</v>
+        <v>0.835113061098063</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05214662498724725</v>
+        <v>0.3138571238225321</v>
       </c>
       <c r="G5" t="n">
-        <v>1.806786095175469</v>
+        <v>1.964054449743493</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9760546218789169</v>
+        <v>1.291964842036605</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02989457016393749</v>
+        <v>0.9361845993598326</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4614938445473299</v>
+        <v>1.524476349783117</v>
       </c>
       <c r="K5" t="n">
-        <v>0.228356355259159</v>
+        <v>0.5602295278031425</v>
       </c>
       <c r="L5" t="n">
-        <v>1.00727338803733</v>
+        <v>0.7435938960125932</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2380779580653637</v>
+        <v>0.5840796586367196</v>
       </c>
       <c r="N5" t="n">
-        <v>135.9073916340724</v>
+        <v>36.31763483260043</v>
       </c>
       <c r="O5" t="n">
-        <v>215.1343202505054</v>
+        <v>57.03852385535983</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_19_6</t>
+          <t>model_1_19_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.987827424880353</v>
+        <v>0.9250927595997209</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7298053565966609</v>
+        <v>0.7053376013712807</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7214908003978042</v>
+        <v>0.6360564259476631</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9621864034903712</v>
+        <v>0.831768699488858</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05108569378903836</v>
+        <v>0.3143696636132576</v>
       </c>
       <c r="G6" t="n">
-        <v>1.806792824570063</v>
+        <v>1.970408816425834</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9962112580858042</v>
+        <v>1.301805061724302</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04230245269589013</v>
+        <v>0.9551730034995327</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4970001217033861</v>
+        <v>1.504314255509458</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2260214454184345</v>
+        <v>0.5606867785254595</v>
       </c>
       <c r="L6" t="n">
-        <v>1.007125409826135</v>
+        <v>0.7431751757704718</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2356436462787899</v>
+        <v>0.5845563754689251</v>
       </c>
       <c r="N6" t="n">
-        <v>135.9485015719189</v>
+        <v>36.31437142572447</v>
       </c>
       <c r="O6" t="n">
-        <v>215.175430188352</v>
+        <v>57.03526044848388</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_19_1</t>
+          <t>model_1_19_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9874824659954348</v>
+        <v>0.9247848046453473</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7298006255251066</v>
+        <v>0.7036938711656142</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7285344688713874</v>
+        <v>0.6315497676646824</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9757083269602567</v>
+        <v>0.8261746768016068</v>
       </c>
       <c r="F7" t="n">
-        <v>0.05253341243456113</v>
+        <v>0.3156620846782595</v>
       </c>
       <c r="G7" t="n">
-        <v>1.806824461267331</v>
+        <v>1.981400447879808</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9710164643711612</v>
+        <v>1.317925117091463</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02717534020880848</v>
+        <v>0.9869343905636025</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4521365176539335</v>
+        <v>1.471928711325775</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2292016850604749</v>
+        <v>0.5618381303171399</v>
       </c>
       <c r="L7" t="n">
-        <v>1.007327336978282</v>
+        <v>0.7421193302126192</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2389592753063956</v>
+        <v>0.5857567426900042</v>
       </c>
       <c r="N7" t="n">
-        <v>135.8926117689871</v>
+        <v>36.3061659796886</v>
       </c>
       <c r="O7" t="n">
-        <v>215.1195403854202</v>
+        <v>57.02705500244801</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_19_7</t>
+          <t>model_1_19_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9878639947436623</v>
+        <v>0.9247086223585034</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7297990666189045</v>
+        <v>0.7033499660822669</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7200873248490324</v>
+        <v>0.6306602720593329</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9591060115999059</v>
+        <v>0.8250539233790519</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05093221789584743</v>
+        <v>0.3159818054390356</v>
       </c>
       <c r="G8" t="n">
-        <v>1.806834885680283</v>
+        <v>1.983700142755689</v>
       </c>
       <c r="H8" t="n">
-        <v>1.001231408745573</v>
+        <v>1.32110679129588</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04574851824530247</v>
+        <v>0.9932977332326038</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5053821448494749</v>
+        <v>1.465631258242883</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2256816738147948</v>
+        <v>0.5621225893335329</v>
       </c>
       <c r="L8" t="n">
-        <v>1.007104003076881</v>
+        <v>0.741858133800583</v>
       </c>
       <c r="M8" t="n">
-        <v>0.235289409894559</v>
+        <v>0.5860533117156363</v>
       </c>
       <c r="N8" t="n">
-        <v>135.9545191822166</v>
+        <v>36.30414128955491</v>
       </c>
       <c r="O8" t="n">
-        <v>215.1814477986496</v>
+        <v>57.02503031231432</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_19_0</t>
+          <t>model_1_19_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9873778110580117</v>
+        <v>0.9246277965088318</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7297925049581163</v>
+        <v>0.7029966384394369</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7299400846899369</v>
+        <v>0.629774598095486</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9779881818473509</v>
+        <v>0.8239330477722913</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05297262681887641</v>
+        <v>0.3163210142396369</v>
       </c>
       <c r="G9" t="n">
-        <v>1.806878763536187</v>
+        <v>1.986062846330216</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9659886580904977</v>
+        <v>1.324274795710233</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02462484349818107</v>
+        <v>0.9996617696313365</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4426001586649725</v>
+        <v>1.45939869093235</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2301578302358545</v>
+        <v>0.5624242297764535</v>
       </c>
       <c r="L9" t="n">
-        <v>1.007388598405066</v>
+        <v>0.7415810166017089</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2399561255613844</v>
+        <v>0.5863677936166938</v>
       </c>
       <c r="N9" t="n">
-        <v>135.8759599479295</v>
+        <v>36.30199542638565</v>
       </c>
       <c r="O9" t="n">
-        <v>215.1028885643626</v>
+        <v>57.02288444914506</v>
       </c>
     </row>
     <row r="10">
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9878908153364754</v>
+        <v>0.9245426341364131</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7297903972536756</v>
+        <v>0.7026406715829713</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7186879722382844</v>
+        <v>0.628892640363452</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9559179243183371</v>
+        <v>0.8228123635189144</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05081965760533958</v>
+        <v>0.3166784224985272</v>
       </c>
       <c r="G10" t="n">
-        <v>1.806892857765487</v>
+        <v>1.988443198338479</v>
       </c>
       <c r="H10" t="n">
-        <v>1.006236811895092</v>
+        <v>1.327429507378871</v>
       </c>
       <c r="I10" t="n">
-        <v>0.04931506371750038</v>
+        <v>1.006024719575967</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5135526893564043</v>
+        <v>1.453223870192367</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2254321574339818</v>
+        <v>0.5627418791049118</v>
       </c>
       <c r="L10" t="n">
-        <v>1.007088303217673</v>
+        <v>0.741289031324845</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2350292710848448</v>
+        <v>0.5866989659346895</v>
       </c>
       <c r="N10" t="n">
-        <v>135.9589440770253</v>
+        <v>36.29973692013034</v>
       </c>
       <c r="O10" t="n">
-        <v>215.1858726934584</v>
+        <v>57.02062594288974</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9879083177211078</v>
+        <v>0.9242617767395969</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7297792481643444</v>
+        <v>0.7015208514524962</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7172934879493607</v>
+        <v>0.6262706249736782</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9526276947200335</v>
+        <v>0.8194520545815246</v>
       </c>
       <c r="F11" t="n">
-        <v>0.05074620384119189</v>
+        <v>0.3178571209112391</v>
       </c>
       <c r="G11" t="n">
-        <v>1.806967411777182</v>
+        <v>1.995931440707263</v>
       </c>
       <c r="H11" t="n">
-        <v>1.011224801339728</v>
+        <v>1.336808304394904</v>
       </c>
       <c r="I11" t="n">
-        <v>0.05299587683204814</v>
+        <v>1.025103668443752</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5215225554366387</v>
+        <v>1.435063096582262</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2252691808508032</v>
+        <v>0.5637881879848486</v>
       </c>
       <c r="L11" t="n">
-        <v>1.007078057919351</v>
+        <v>0.7403260916786178</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2348593562511122</v>
+        <v>0.5877898183498032</v>
       </c>
       <c r="N11" t="n">
-        <v>135.9618369300335</v>
+        <v>36.29230660496081</v>
       </c>
       <c r="O11" t="n">
-        <v>215.1887655464666</v>
+        <v>57.01319562772021</v>
       </c>
     </row>
   </sheetData>
